--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,30 +462,30 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ded</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>888</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>888</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>888</t>
+          <t>ded</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -495,12 +495,12 @@
         <v>88</v>
       </c>
       <c r="E3" t="n">
-        <v>88888888</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -508,26 +508,26 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>88</v>
+        <v>888</v>
       </c>
       <c r="D4" t="n">
-        <v>888</v>
+        <v>88</v>
       </c>
       <c r="E4" t="n">
-        <v>888</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ded</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>88</v>
+        <v>888</v>
       </c>
       <c r="D5" t="n">
         <v>88</v>
@@ -538,97 +538,21 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>888</t>
+          <t>ala</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>7</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>888</v>
-      </c>
-      <c r="D7" t="n">
-        <v>88</v>
-      </c>
-      <c r="E7" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>8</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>888</v>
-      </c>
-      <c r="D8" t="n">
-        <v>88</v>
-      </c>
-      <c r="E8" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>9</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>zz</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>12</v>
-      </c>
-      <c r="D9" t="n">
-        <v>10</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>10</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Laptop</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>25</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1200</v>
-      </c>
-      <c r="E10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/stock.xlsx
+++ b/data/stock.xlsx
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" t="n">
         <v>888</v>
@@ -489,7 +489,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D3" t="n">
         <v>88</v>
